--- a/ig/ch-epreg/ValueSet-fetal-rhd-antigen.xlsx
+++ b/ig/ch-epreg/ValueSet-fetal-rhd-antigen.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T15:10:51+00:00</t>
+    <t>2025-12-16T12:22:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
